--- a/analyses/tables/soil_inorganics.xlsx
+++ b/analyses/tables/soil_inorganics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicksmith/Documents/Git/mdi_pitchpine/analyses/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/risa/Git/mdi_pitchpine/analyses/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A5A5D687-F7F7-9F43-A446-01B281ADF840}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A4BC93-BFD4-EE4F-8795-41AA7D992070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="3860" windowWidth="27640" windowHeight="16940"/>
+    <workbookView xWindow="7740" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="soil_inorganics" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Df</t>
-  </si>
-  <si>
-    <t>Residuals</t>
   </si>
   <si>
     <t>Elevation</t>
@@ -35,12 +32,6 @@
   </si>
   <si>
     <t>Elevation*Fire</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>P</t>
   </si>
   <si>
     <t>Soil Ca</t>
@@ -60,15 +51,21 @@
   <si>
     <t>Soil Zn</t>
   </si>
+  <si>
+    <t>Chisq</t>
+  </si>
+  <si>
+    <t>Pr(&gt;Chisq)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -203,13 +200,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -392,7 +382,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -507,21 +497,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -569,8 +544,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -925,247 +900,213 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C3" sqref="C3:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="2.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>7.4816343720457699</v>
+        <v>6.7290335952831999</v>
       </c>
       <c r="D3" s="2">
-        <v>1.08771660503417E-2</v>
+        <v>9.48559783408498E-3</v>
       </c>
       <c r="E3" s="2">
-        <v>3.2946546244945099</v>
+        <v>2.8287394894881199</v>
       </c>
       <c r="F3" s="2">
-        <v>8.0630017591799497E-2</v>
+        <v>9.2591007190058E-2</v>
       </c>
       <c r="G3" s="2">
-        <v>2.7943434674316801</v>
+        <v>2.2844272786629198</v>
       </c>
       <c r="H3" s="2">
-        <v>0.106149399542442</v>
+        <v>0.13067837197047599</v>
       </c>
       <c r="I3" s="2">
-        <v>2.9206890150988598</v>
+        <v>2.5250235851722702</v>
       </c>
       <c r="J3" s="2">
-        <v>9.8922724426605005E-2</v>
+        <v>0.112053105259267</v>
       </c>
       <c r="K3" s="2">
-        <v>0.54401715458986499</v>
+        <v>1.3416909066814799</v>
       </c>
       <c r="L3" s="2">
-        <v>0.467134803088538</v>
+        <v>0.24673599343390201</v>
       </c>
       <c r="M3" s="2">
-        <v>1.05314704625424</v>
+        <v>2.0793095787854101</v>
       </c>
       <c r="N3" s="2">
-        <v>0.31389013872136201</v>
+        <v>0.14930769706744301</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>0.58681516444394699</v>
+        <v>4.14238142962986E-2</v>
       </c>
       <c r="D4" s="2">
-        <v>0.45029895891007499</v>
+        <v>0.83872204119419103</v>
       </c>
       <c r="E4" s="2">
-        <v>1.9581928816397201</v>
+        <v>1.01468215258923</v>
       </c>
       <c r="F4" s="2">
-        <v>0.17309110197049701</v>
+        <v>0.31378374721258201</v>
       </c>
       <c r="G4" s="2">
-        <v>8.9060536793480498</v>
+        <v>6.6637370864232697</v>
       </c>
       <c r="H4" s="2">
-        <v>5.9709369350306298E-3</v>
+        <v>9.8394358958309603E-3</v>
       </c>
       <c r="I4" s="2">
-        <v>0.73523363282029297</v>
+        <v>0.25421283913653497</v>
       </c>
       <c r="J4" s="2">
-        <v>0.39873942001219498</v>
+        <v>0.61412418566564597</v>
       </c>
       <c r="K4" s="2">
-        <v>6.4580089742440096E-3</v>
+        <v>3.17287809743508E-2</v>
       </c>
       <c r="L4" s="2">
-        <v>0.93654226770347104</v>
+        <v>0.85862422388234605</v>
       </c>
       <c r="M4" s="2">
-        <v>6.8292590195400597E-4</v>
+        <v>8.2427425931306295E-2</v>
       </c>
       <c r="N4" s="2">
-        <v>0.97934356994586902</v>
+        <v>0.77403439748311698</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>7.3795823936482399E-3</v>
+        <v>0.13529365744604099</v>
       </c>
       <c r="D5" s="2">
-        <v>0.93217621544862606</v>
+        <v>0.71300532123225702</v>
       </c>
       <c r="E5" s="2">
-        <v>6.5828791794975503E-3</v>
+        <v>6.4839733284038997E-2</v>
       </c>
       <c r="F5" s="2">
-        <v>0.93593308604762404</v>
+        <v>0.79900388628772201</v>
       </c>
       <c r="G5" s="2">
-        <v>2.5468245452039299E-2</v>
+        <v>9.9514972414990993E-2</v>
       </c>
       <c r="H5" s="2">
-        <v>0.87439370087842405</v>
+        <v>0.75241246423187402</v>
       </c>
       <c r="I5" s="2">
-        <v>4.7339818671726402E-2</v>
+        <v>0.223783796904199</v>
       </c>
       <c r="J5" s="2">
-        <v>0.829394506666154</v>
+        <v>0.63617185632787399</v>
       </c>
       <c r="K5" s="2">
-        <v>10.141420565757199</v>
+        <v>7.8506878451526196</v>
       </c>
       <c r="L5" s="2">
-        <v>3.6374643732996802E-3</v>
+        <v>5.0801375297479896E-3</v>
       </c>
       <c r="M5" s="2">
-        <v>3.5533034148565799</v>
+        <v>2.8831516037398801</v>
       </c>
       <c r="N5" s="2">
-        <v>7.0232779053167799E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
-        <v>27</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+        <v>8.9510673895769999E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/analyses/tables/soil_inorganics.xlsx
+++ b/analyses/tables/soil_inorganics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/risa/Git/mdi_pitchpine/analyses/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A4BC93-BFD4-EE4F-8795-41AA7D992070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F9F856-7984-C342-9FDB-16AAAA897589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="3380" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="soil_inorganics" sheetId="1" r:id="rId1"/>
@@ -52,10 +52,10 @@
     <t>Soil Zn</t>
   </si>
   <si>
-    <t>Chisq</t>
+    <t>F value</t>
   </si>
   <si>
-    <t>Pr(&gt;Chisq)</t>
+    <t>Pr(&gt;F)</t>
   </si>
 </sst>
 </file>
@@ -545,7 +545,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -901,212 +901,261 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:N5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1"/>
+      <c r="B1"/>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1"/>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1"/>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1"/>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1"/>
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="L1"/>
+      <c r="M1" t="s">
         <v>9</v>
       </c>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2"/>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" t="s">
         <v>11</v>
       </c>
+      <c r="O2"/>
+      <c r="P2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>6.7290335952831999</v>
+        <v>1.3205320315134099</v>
       </c>
       <c r="D3" s="2">
-        <v>9.48559783408498E-3</v>
+        <v>0.260574909674609</v>
       </c>
       <c r="E3" s="2">
-        <v>2.8287394894881199</v>
+        <v>7.4114905636483099</v>
       </c>
       <c r="F3" s="2">
-        <v>9.2591007190058E-2</v>
+        <v>1.1212882976314301E-2</v>
       </c>
       <c r="G3" s="2">
-        <v>2.2844272786629198</v>
+        <v>4.8178305593800399</v>
       </c>
       <c r="H3" s="2">
-        <v>0.13067837197047599</v>
+        <v>3.6945329351130103E-2</v>
       </c>
       <c r="I3" s="2">
-        <v>2.5250235851722702</v>
+        <v>3.1027791937976601</v>
       </c>
       <c r="J3" s="2">
-        <v>0.112053105259267</v>
+        <v>8.9480640795369895E-2</v>
       </c>
       <c r="K3" s="2">
-        <v>1.3416909066814799</v>
+        <v>3.92623304333262</v>
       </c>
       <c r="L3" s="2">
-        <v>0.24673599343390201</v>
+        <v>5.78053976733394E-2</v>
       </c>
       <c r="M3" s="2">
-        <v>2.0793095787854101</v>
+        <v>2.00056271265758</v>
       </c>
       <c r="N3" s="2">
-        <v>0.14930769706744301</v>
-      </c>
+        <v>0.16866979877174801</v>
+      </c>
+      <c r="Q3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>4.14238142962986E-2</v>
+        <v>3.1728780974384897E-2</v>
       </c>
       <c r="D4" s="2">
-        <v>0.83872204119419103</v>
+        <v>0.85995396577195304</v>
       </c>
       <c r="E4" s="2">
-        <v>1.01468215258923</v>
+        <v>4.1423814296328097E-2</v>
       </c>
       <c r="F4" s="2">
-        <v>0.31378374721258201</v>
+        <v>0.84024822859276505</v>
       </c>
       <c r="G4" s="2">
-        <v>6.6637370864232697</v>
+        <v>6.6637370864234704</v>
       </c>
       <c r="H4" s="2">
-        <v>9.8394358958309603E-3</v>
+        <v>1.55898999699065E-2</v>
       </c>
       <c r="I4" s="2">
-        <v>0.25421283913653497</v>
+        <v>0.25421283913655002</v>
       </c>
       <c r="J4" s="2">
-        <v>0.61412418566564597</v>
+        <v>0.61821401490275296</v>
       </c>
       <c r="K4" s="2">
-        <v>3.17287809743508E-2</v>
+        <v>1.01468215258922</v>
       </c>
       <c r="L4" s="2">
-        <v>0.85862422388234605</v>
+        <v>0.32272645126598998</v>
       </c>
       <c r="M4" s="2">
-        <v>8.2427425931306295E-2</v>
+        <v>8.2427425931421994E-2</v>
       </c>
       <c r="N4" s="2">
-        <v>0.77403439748311698</v>
-      </c>
+        <v>0.77622628948594496</v>
+      </c>
+      <c r="Q4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>0.13529365744604099</v>
+        <v>7.8506878451528301</v>
       </c>
       <c r="D5" s="2">
-        <v>0.71300532123225702</v>
+        <v>9.2824103444716002E-3</v>
       </c>
       <c r="E5" s="2">
-        <v>6.4839733284038997E-2</v>
+        <v>0.13529365744603999</v>
       </c>
       <c r="F5" s="2">
-        <v>0.79900388628772201</v>
+        <v>0.71587315738670698</v>
       </c>
       <c r="G5" s="2">
-        <v>9.9514972414990993E-2</v>
+        <v>9.9514972414990396E-2</v>
       </c>
       <c r="H5" s="2">
-        <v>0.75241246423187402</v>
+        <v>0.75483789617928498</v>
       </c>
       <c r="I5" s="2">
-        <v>0.223783796904199</v>
+        <v>0.223783796904197</v>
       </c>
       <c r="J5" s="2">
-        <v>0.63617185632787399</v>
+        <v>0.63997399946884104</v>
       </c>
       <c r="K5" s="2">
-        <v>7.8506878451526196</v>
+        <v>6.4839733284033099E-2</v>
       </c>
       <c r="L5" s="2">
-        <v>5.0801375297479896E-3</v>
+        <v>0.80093335720010705</v>
       </c>
       <c r="M5" s="2">
         <v>2.8831516037398801</v>
       </c>
       <c r="N5" s="2">
-        <v>8.9510673895769999E-2</v>
-      </c>
+        <v>0.10100879632386001</v>
+      </c>
+      <c r="Q5"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>27</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/analyses/tables/soil_inorganics.xlsx
+++ b/analyses/tables/soil_inorganics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/risa/Git/mdi_pitchpine/analyses/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicksmith/Documents/Git/mdi_pitchpine/analyses/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F9F856-7984-C342-9FDB-16AAAA897589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC648E25-9870-BF49-88F0-B02270F0C21B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="3380" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8480" yWindow="3460" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="soil_inorganics" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -199,6 +199,26 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -542,10 +562,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -904,253 +928,254 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1"/>
-      <c r="B1"/>
-      <c r="C1" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1"/>
-      <c r="E1" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1"/>
-      <c r="G1" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1"/>
-      <c r="I1" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1"/>
-      <c r="K1" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L1"/>
-      <c r="M1" t="s">
+      <c r="L1" s="2"/>
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N1"/>
+      <c r="N1" s="2"/>
       <c r="O1"/>
       <c r="P1"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2"/>
-      <c r="B2" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="O2"/>
       <c r="P2"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
-        <v>1.3205320315134099</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.260574909674609</v>
-      </c>
-      <c r="E3" s="2">
-        <v>7.4114905636483099</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1.1212882976314301E-2</v>
-      </c>
-      <c r="G3" s="2">
-        <v>4.8178305593800399</v>
-      </c>
-      <c r="H3" s="2">
-        <v>3.6945329351130103E-2</v>
-      </c>
-      <c r="I3" s="2">
-        <v>3.1027791937976601</v>
-      </c>
-      <c r="J3" s="2">
-        <v>8.9480640795369895E-2</v>
-      </c>
-      <c r="K3" s="2">
-        <v>3.92623304333262</v>
-      </c>
-      <c r="L3" s="2">
-        <v>5.78053976733394E-2</v>
-      </c>
-      <c r="M3" s="2">
-        <v>2.00056271265758</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0.16866979877174801</v>
+      <c r="C3" s="4">
+        <v>1.3416909066815099</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.256879302708584</v>
+      </c>
+      <c r="E3" s="4">
+        <v>6.7290335952832097</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1.51413548840262E-2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2.2844272786629198</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.14229519837118601</v>
+      </c>
+      <c r="I3" s="4">
+        <v>2.5250235851722702</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.123695893028421</v>
+      </c>
+      <c r="K3" s="4">
+        <v>2.8287394894881301</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0.104123364215222</v>
+      </c>
+      <c r="M3" s="4">
+        <v>2.0793095787854101</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0.16080761989414499</v>
       </c>
       <c r="Q3"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
-        <v>3.1728780974384897E-2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.85995396577195304</v>
-      </c>
-      <c r="E4" s="2">
-        <v>4.1423814296328097E-2</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.84024822859276505</v>
-      </c>
-      <c r="G4" s="2">
-        <v>6.6637370864234704</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1.55898999699065E-2</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.25421283913655002</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0.61821401490275296</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1.01468215258922</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0.32272645126598998</v>
-      </c>
-      <c r="M4" s="2">
-        <v>8.2427425931421994E-2</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0.77622628948594496</v>
+      <c r="C4" s="4">
+        <v>3.1728780974435898E-2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.85995396577184202</v>
+      </c>
+      <c r="E4" s="4">
+        <v>4.1423814296312998E-2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.84024822859279402</v>
+      </c>
+      <c r="G4" s="4">
+        <v>6.6637370864232803</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1.5589899969907801E-2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.25421283913653397</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.61821401490276395</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1.01468215258921</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0.32272645126599397</v>
+      </c>
+      <c r="M4" s="4">
+        <v>8.2427425931308501E-2</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0.77622628948609496</v>
       </c>
       <c r="Q4"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>7.8506878451528301</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="6">
         <v>9.2824103444716002E-3</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>0.13529365744603999</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>0.71587315738670698</v>
       </c>
-      <c r="G5" s="2">
-        <v>9.9514972414990396E-2</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.75483789617928498</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="G5" s="4">
+        <v>9.9514972414988703E-2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.75483789617928698</v>
+      </c>
+      <c r="I5" s="4">
         <v>0.223783796904197</v>
       </c>
-      <c r="J5" s="2">
-        <v>0.63997399946884104</v>
-      </c>
-      <c r="K5" s="2">
-        <v>6.4839733284033099E-2</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0.80093335720010705</v>
-      </c>
-      <c r="M5" s="2">
+      <c r="J5" s="4">
+        <v>0.63997399946884004</v>
+      </c>
+      <c r="K5" s="4">
+        <v>6.4839733284033696E-2</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0.80093335720010606</v>
+      </c>
+      <c r="M5" s="4">
         <v>2.8831516037398801</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="4">
         <v>0.10100879632386001</v>
       </c>
       <c r="Q5"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B6">
+      <c r="A6" s="3"/>
+      <c r="B6" s="5">
         <v>27</v>
       </c>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6"/>
